--- a/biology/Zoologie/Gephyromantis_mafy/Gephyromantis_mafy.xlsx
+++ b/biology/Zoologie/Gephyromantis_mafy/Gephyromantis_mafy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gephyromantis mafy est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre dans les environs de Vohimena[1]. Elle vit dans la forêt tropicale humide[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre dans les environs de Vohimena. Elle vit dans la forêt tropicale humide.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 20,4 mm de longueur standard[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 20,4 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du malgache mafy, « fort, difficile », lui a été donné en référence au fait que cette espèce vit dans des milieux dégradés par des coupes illégales de bois ainsi qu'en référence à la difficulté de collecter cette espèce[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du malgache mafy, « fort, difficile », lui a été donné en référence au fait que cette espèce vit dans des milieux dégradés par des coupes illégales de bois ainsi qu'en référence à la difficulté de collecter cette espèce.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vieites, Wollenberg &amp; Vences, 2012 : Not all little brown frogs are the same: a new species of secretive and cryptic Gephyromantis (Anura: Mantellidae) from Madagascar. Zootaxa, no 3344, p. 34-46.</t>
         </is>
